--- a/Players Fits and Nationalities/Nationalities.xlsx
+++ b/Players Fits and Nationalities/Nationalities.xlsx
@@ -28,247 +28,247 @@
     <t xml:space="preserve">Number of players</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total:</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Total:</t>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England</t>
   </si>
   <si>
     <t xml:space="preserve">Finland</t>
   </si>
   <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Québec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">England</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canary Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
     <t xml:space="preserve">Panama</t>
   </si>
   <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Québec </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canary Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antarctica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
   </si>
   <si>
     <t xml:space="preserve">Wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
   </si>
 </sst>
 </file>
@@ -388,8 +388,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,7 +485,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -579,244 +583,244 @@
               <c:strCache>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>USA</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Finland</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>Taiwan</c:v>
+                  <c:v>Unknown</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Poland</c:v>
+                  <c:v>Japan</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Japan</c:v>
+                  <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Czech Republic</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Switzerland</c:v>
+                  <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Taiwan</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>England</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>Finland</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Australia</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>South Korea</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Panama</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Hong Kong</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Ukraine</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Vietnam</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Québec </c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>Belarus</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>India</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Greece</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Russia</c:v>
+                  <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>Scotland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Saudi Arabia</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Slovakia</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Vietnam</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Hungary</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Indonesia</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>New Zealand</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Philippines</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>Portugal</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Philippines</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Québec </c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Armenia</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Slovakia</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Brazil</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Canary Islands</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Egypt</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
+                  <c:v>Romania</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Uganda</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Uruguay</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Chile</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Ukraine</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>Antarctica</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>Scotland</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Uganda</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Costa Rica</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>Bahrain</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>Uruguay</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Ireland</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Croatia</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Saudi Arabia</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Hungary</c:v>
-                </c:pt>
                 <c:pt idx="51">
-                  <c:v>Wales</c:v>
+                  <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>Cyprus</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>Argentina</c:v>
+                  <c:v>Lithuania</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>Mexico</c:v>
+                  <c:v>Peru</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>Peru</c:v>
+                  <c:v>Serbia</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>Romania</c:v>
+                  <c:v>Singapore</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>Armenia</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Azerbaijan</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Belarus</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Bosnia and Herzegovina</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Brunei</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Canary Islands</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Catalonia</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Croatia</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Egypt</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>European Union</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Honduras</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Iraq</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Jordan</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Kazakhstan</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Malaysia</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>Nepal</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>Turkey</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Chile</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Honduras</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Indonesia</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Iraq</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="75">
+                  <c:v>Pakistan</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Panama</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Puerto Rico</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>Venezuela</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Pakistan</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>Singapore</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Serbia</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Brunei</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Jordan</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Malaysia</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Puerto Rico</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Bosnia and Herzegovina</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Azerbaijan</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Catalonia</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Kazakhstan</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>European Union</c:v>
-                </c:pt>
                 <c:pt idx="79">
-                  <c:v>Unknown</c:v>
+                  <c:v>Wales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -828,211 +832,211 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>205</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>239</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="50">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="51">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1</c:v>
@@ -1059,13 +1063,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>146</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,11 +1077,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="93941907"/>
-        <c:axId val="81191616"/>
+        <c:axId val="32140111"/>
+        <c:axId val="44838818"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93941907"/>
+        <c:axId val="32140111"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1146,7 +1150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81191616"/>
+        <c:crossAx val="44838818"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1154,7 +1158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81191616"/>
+        <c:axId val="44838818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1237,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93941907"/>
+        <c:crossAx val="32140111"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1297,9 +1301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>339840</xdr:colOff>
+      <xdr:colOff>339120</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1308,7 +1312,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4862880" y="571680"/>
-        <a:ext cx="21469320" cy="13935240"/>
+        <a:ext cx="21468600" cy="13934520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1329,1466 +1333,1466 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>205</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="3" t="n">
+        <v>240</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <f aca="false">SUM(B2:B82)</f>
-        <v>1257</v>
+      <c r="F2" s="4" t="n">
+        <f aca="false">SUM(B2:B81)</f>
+        <v>1264</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="n">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="n">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="B41" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="n">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="n">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="2" t="n">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="2" t="n">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="2" t="n">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="2" t="n">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="2" t="n">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="2" t="n">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2" t="n">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="2" t="n">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="2" t="n">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="2" t="n">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="2" t="n">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="2" t="n">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="2" t="n">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="2" t="n">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="2" t="n">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="2" t="n">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="2" t="n">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="2" t="n">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="2" t="n">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="2" t="n">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="2" t="n">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>146</v>
-      </c>
-    </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+      <c r="A104" s="0"/>
+      <c r="B104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="0"/>
+      <c r="B105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="A106" s="0"/>
+      <c r="B106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+      <c r="A107" s="0"/>
+      <c r="B107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="A108" s="0"/>
+      <c r="B108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="A109" s="0"/>
+      <c r="B109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="A110" s="0"/>
+      <c r="B110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="A111" s="0"/>
+      <c r="B111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="A112" s="0"/>
+      <c r="B112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="A113" s="0"/>
+      <c r="B113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="A114" s="0"/>
+      <c r="B114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="A115" s="0"/>
+      <c r="B115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="A116" s="0"/>
+      <c r="B116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="A117" s="0"/>
+      <c r="B117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="A118" s="0"/>
+      <c r="B118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="A119" s="0"/>
+      <c r="B119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="A120" s="0"/>
+      <c r="B120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="A121" s="0"/>
+      <c r="B121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="A122" s="0"/>
+      <c r="B122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="A123" s="0"/>
+      <c r="B123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+      <c r="A124" s="0"/>
+      <c r="B124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+      <c r="A125" s="0"/>
+      <c r="B125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
+      <c r="A126" s="0"/>
+      <c r="B126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
+      <c r="A127" s="0"/>
+      <c r="B127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
+      <c r="A128" s="0"/>
+      <c r="B128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="A129" s="0"/>
+      <c r="B129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="A130" s="0"/>
+      <c r="B130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="A131" s="0"/>
+      <c r="B131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="A132" s="0"/>
+      <c r="B132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="A133" s="0"/>
+      <c r="B133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
+      <c r="A134" s="0"/>
+      <c r="B134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
+      <c r="A135" s="0"/>
+      <c r="B135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="A136" s="0"/>
+      <c r="B136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="A137" s="0"/>
+      <c r="B137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="A138" s="0"/>
+      <c r="B138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="A139" s="0"/>
+      <c r="B139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
+      <c r="A140" s="0"/>
+      <c r="B140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
+      <c r="A141" s="0"/>
+      <c r="B141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="A142" s="0"/>
+      <c r="B142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
+      <c r="A143" s="0"/>
+      <c r="B143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
+      <c r="A144" s="0"/>
+      <c r="B144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="A145" s="0"/>
+      <c r="B145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
+      <c r="A146" s="0"/>
+      <c r="B146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
+      <c r="A147" s="0"/>
+      <c r="B147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
+      <c r="A148" s="0"/>
+      <c r="B148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
+      <c r="A149" s="0"/>
+      <c r="B149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
+      <c r="A150" s="0"/>
+      <c r="B150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
+      <c r="A151" s="0"/>
+      <c r="B151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
+      <c r="A152" s="0"/>
+      <c r="B152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
+      <c r="A153" s="0"/>
+      <c r="B153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
+      <c r="A154" s="0"/>
+      <c r="B154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
+      <c r="A155" s="0"/>
+      <c r="B155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="A156" s="0"/>
+      <c r="B156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
+      <c r="A157" s="0"/>
+      <c r="B157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
+      <c r="A158" s="0"/>
+      <c r="B158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
+      <c r="A159" s="0"/>
+      <c r="B159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
+      <c r="A160" s="0"/>
+      <c r="B160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
+      <c r="A161" s="0"/>
+      <c r="B161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
+      <c r="A162" s="0"/>
+      <c r="B162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
+      <c r="A163" s="0"/>
+      <c r="B163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
+      <c r="A164" s="0"/>
+      <c r="B164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
+      <c r="A165" s="0"/>
+      <c r="B165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
+      <c r="A166" s="0"/>
+      <c r="B166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
+      <c r="A167" s="0"/>
+      <c r="B167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
+      <c r="A168" s="0"/>
+      <c r="B168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
+      <c r="A169" s="0"/>
+      <c r="B169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
+      <c r="A170" s="0"/>
+      <c r="B170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
+      <c r="A171" s="0"/>
+      <c r="B171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
+      <c r="A172" s="0"/>
+      <c r="B172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
+      <c r="A173" s="0"/>
+      <c r="B173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
+      <c r="A174" s="0"/>
+      <c r="B174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
+      <c r="A175" s="0"/>
+      <c r="B175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
+      <c r="A176" s="0"/>
+      <c r="B176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
+      <c r="A177" s="0"/>
+      <c r="B177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
+      <c r="A178" s="0"/>
+      <c r="B178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
+      <c r="A179" s="0"/>
+      <c r="B179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
+      <c r="A180" s="0"/>
+      <c r="B180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
+      <c r="A181" s="0"/>
+      <c r="B181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
+      <c r="A182" s="0"/>
+      <c r="B182" s="0"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
+      <c r="A183" s="0"/>
+      <c r="B183" s="0"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
+      <c r="A184" s="0"/>
+      <c r="B184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
+      <c r="A185" s="0"/>
+      <c r="B185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
+      <c r="A186" s="0"/>
+      <c r="B186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
+      <c r="A187" s="0"/>
+      <c r="B187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
+      <c r="A188" s="0"/>
+      <c r="B188" s="0"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
+      <c r="A189" s="0"/>
+      <c r="B189" s="0"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
+      <c r="A190" s="0"/>
+      <c r="B190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
+      <c r="A191" s="0"/>
+      <c r="B191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
+      <c r="A192" s="0"/>
+      <c r="B192" s="0"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
+      <c r="A193" s="0"/>
+      <c r="B193" s="0"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
+      <c r="A194" s="0"/>
+      <c r="B194" s="0"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
+      <c r="A195" s="0"/>
+      <c r="B195" s="0"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
+      <c r="A196" s="0"/>
+      <c r="B196" s="0"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
+      <c r="A197" s="0"/>
+      <c r="B197" s="0"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
+      <c r="A198" s="0"/>
+      <c r="B198" s="0"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
+      <c r="A199" s="0"/>
+      <c r="B199" s="0"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
+      <c r="A200" s="0"/>
+      <c r="B200" s="0"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
+      <c r="A201" s="0"/>
+      <c r="B201" s="0"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
+      <c r="A202" s="0"/>
+      <c r="B202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
+      <c r="A203" s="0"/>
+      <c r="B203" s="0"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
+      <c r="A204" s="0"/>
+      <c r="B204" s="0"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
+      <c r="A205" s="0"/>
+      <c r="B205" s="0"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
+      <c r="A206" s="0"/>
+      <c r="B206" s="0"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
+      <c r="A207" s="0"/>
+      <c r="B207" s="0"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
+      <c r="A208" s="0"/>
+      <c r="B208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="4"/>
-      <c r="B230" s="4"/>
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="4"/>
-      <c r="B231" s="4"/>
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="4"/>
-      <c r="B232" s="4"/>
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="4"/>
-      <c r="B233" s="4"/>
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="4"/>
-      <c r="B234" s="4"/>
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="4"/>
-      <c r="B236" s="4"/>
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="4"/>
-      <c r="B238" s="4"/>
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
+      <c r="A244" s="5"/>
+      <c r="B244" s="5"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="4"/>
-      <c r="B245" s="4"/>
+      <c r="A245" s="5"/>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="4"/>
-      <c r="B248" s="4"/>
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="4"/>
-      <c r="B249" s="4"/>
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="4"/>
-      <c r="B250" s="4"/>
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="4"/>
-      <c r="B251" s="4"/>
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="4"/>
-      <c r="B252" s="4"/>
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="4"/>
-      <c r="B253" s="4"/>
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="4"/>
-      <c r="B254" s="4"/>
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="4"/>
-      <c r="B255" s="4"/>
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="4"/>
-      <c r="B256" s="4"/>
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="4"/>
-      <c r="B258" s="4"/>
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="4"/>
-      <c r="B260" s="4"/>
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="4"/>
-      <c r="B261" s="4"/>
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="4"/>
-      <c r="B263" s="4"/>
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="4"/>
-      <c r="B264" s="4"/>
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="4"/>
-      <c r="B265" s="4"/>
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="4"/>
-      <c r="B266" s="4"/>
+      <c r="A266" s="5"/>
+      <c r="B266" s="5"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="4"/>
-      <c r="B267" s="4"/>
+      <c r="A267" s="5"/>
+      <c r="B267" s="5"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="4"/>
-      <c r="B268" s="4"/>
+      <c r="A268" s="5"/>
+      <c r="B268" s="5"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="4"/>
-      <c r="B269" s="4"/>
+      <c r="A269" s="5"/>
+      <c r="B269" s="5"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="4"/>
-      <c r="B270" s="4"/>
+      <c r="A270" s="5"/>
+      <c r="B270" s="5"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="4"/>
-      <c r="B271" s="4"/>
+      <c r="A271" s="5"/>
+      <c r="B271" s="5"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="4"/>
-      <c r="B272" s="4"/>
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="4"/>
-      <c r="B273" s="4"/>
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="4"/>
-      <c r="B274" s="4"/>
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="4"/>
-      <c r="B275" s="4"/>
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="4"/>
-      <c r="B276" s="4"/>
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="4"/>
-      <c r="B277" s="4"/>
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="4"/>
-      <c r="B278" s="4"/>
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="4"/>
-      <c r="B280" s="4"/>
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="4"/>
-      <c r="B281" s="4"/>
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Players Fits and Nationalities/Nationalities.xlsx
+++ b/Players Fits and Nationalities/Nationalities.xlsx
@@ -485,7 +485,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -853,7 +853,7 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>26</c:v>
@@ -1077,11 +1077,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="32140111"/>
-        <c:axId val="44838818"/>
+        <c:axId val="53051639"/>
+        <c:axId val="19168288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32140111"/>
+        <c:axId val="53051639"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1150,7 +1150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44838818"/>
+        <c:crossAx val="19168288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1158,7 +1158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44838818"/>
+        <c:axId val="19168288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32140111"/>
+        <c:crossAx val="53051639"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,9 +1301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>339120</xdr:colOff>
+      <xdr:colOff>338760</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1312,7 +1312,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4862880" y="571680"/>
-        <a:ext cx="21468600" cy="13934520"/>
+        <a:ext cx="21468240" cy="13934160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">SUM(B2:B81)</f>
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2082,426 +2082,111 @@
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0"/>
-      <c r="B104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0"/>
-      <c r="B105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0"/>
-      <c r="B106" s="0"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0"/>
-      <c r="B107" s="0"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0"/>
-      <c r="B108" s="0"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0"/>
-      <c r="B109" s="0"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0"/>
-      <c r="B110" s="0"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0"/>
-      <c r="B111" s="0"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0"/>
-      <c r="B112" s="0"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0"/>
-      <c r="B113" s="0"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0"/>
-      <c r="B114" s="0"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0"/>
-      <c r="B115" s="0"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0"/>
-      <c r="B116" s="0"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0"/>
-      <c r="B117" s="0"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0"/>
-      <c r="B118" s="0"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0"/>
-      <c r="B119" s="0"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0"/>
-      <c r="B120" s="0"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0"/>
-      <c r="B121" s="0"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0"/>
-      <c r="B122" s="0"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0"/>
-      <c r="B123" s="0"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0"/>
-      <c r="B124" s="0"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0"/>
-      <c r="B125" s="0"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0"/>
-      <c r="B126" s="0"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0"/>
-      <c r="B127" s="0"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0"/>
-      <c r="B128" s="0"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0"/>
-      <c r="B129" s="0"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0"/>
-      <c r="B130" s="0"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0"/>
-      <c r="B131" s="0"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0"/>
-      <c r="B132" s="0"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0"/>
-      <c r="B133" s="0"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0"/>
-      <c r="B134" s="0"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0"/>
-      <c r="B135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0"/>
-      <c r="B136" s="0"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0"/>
-      <c r="B137" s="0"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0"/>
-      <c r="B138" s="0"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0"/>
-      <c r="B139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0"/>
-      <c r="B140" s="0"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0"/>
-      <c r="B141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0"/>
-      <c r="B142" s="0"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0"/>
-      <c r="B143" s="0"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0"/>
-      <c r="B144" s="0"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0"/>
-      <c r="B145" s="0"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0"/>
-      <c r="B146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0"/>
-      <c r="B147" s="0"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0"/>
-      <c r="B148" s="0"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0"/>
-      <c r="B149" s="0"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0"/>
-      <c r="B150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0"/>
-      <c r="B151" s="0"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0"/>
-      <c r="B152" s="0"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0"/>
-      <c r="B153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0"/>
-      <c r="B154" s="0"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0"/>
-      <c r="B155" s="0"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0"/>
-      <c r="B156" s="0"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0"/>
-      <c r="B157" s="0"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0"/>
-      <c r="B158" s="0"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0"/>
-      <c r="B159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0"/>
-      <c r="B160" s="0"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0"/>
-      <c r="B161" s="0"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0"/>
-      <c r="B162" s="0"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0"/>
-      <c r="B163" s="0"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0"/>
-      <c r="B164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0"/>
-      <c r="B165" s="0"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0"/>
-      <c r="B166" s="0"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0"/>
-      <c r="B167" s="0"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0"/>
-      <c r="B168" s="0"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0"/>
-      <c r="B169" s="0"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0"/>
-      <c r="B170" s="0"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0"/>
-      <c r="B171" s="0"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0"/>
-      <c r="B172" s="0"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0"/>
-      <c r="B173" s="0"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0"/>
-      <c r="B174" s="0"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0"/>
-      <c r="B175" s="0"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0"/>
-      <c r="B176" s="0"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0"/>
-      <c r="B177" s="0"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0"/>
-      <c r="B178" s="0"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0"/>
-      <c r="B179" s="0"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0"/>
-      <c r="B180" s="0"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0"/>
-      <c r="B181" s="0"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0"/>
-      <c r="B182" s="0"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0"/>
-      <c r="B183" s="0"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0"/>
-      <c r="B184" s="0"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0"/>
-      <c r="B185" s="0"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0"/>
-      <c r="B186" s="0"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0"/>
-      <c r="B187" s="0"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0"/>
-      <c r="B188" s="0"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0"/>
-      <c r="B189" s="0"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0"/>
-      <c r="B190" s="0"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0"/>
-      <c r="B191" s="0"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0"/>
-      <c r="B192" s="0"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0"/>
-      <c r="B193" s="0"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0"/>
-      <c r="B194" s="0"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0"/>
-      <c r="B195" s="0"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0"/>
-      <c r="B196" s="0"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0"/>
-      <c r="B197" s="0"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0"/>
-      <c r="B198" s="0"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0"/>
-      <c r="B199" s="0"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0"/>
-      <c r="B200" s="0"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0"/>
-      <c r="B201" s="0"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0"/>
-      <c r="B202" s="0"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0"/>
-      <c r="B203" s="0"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0"/>
-      <c r="B204" s="0"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0"/>
-      <c r="B205" s="0"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0"/>
-      <c r="B206" s="0"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0"/>
-      <c r="B207" s="0"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0"/>
-      <c r="B208" s="0"/>
-    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>

--- a/Players Fits and Nationalities/Nationalities.xlsx
+++ b/Players Fits and Nationalities/Nationalities.xlsx
@@ -485,7 +485,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -868,7 +868,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>21</c:v>
@@ -877,7 +877,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>18</c:v>
@@ -1077,11 +1077,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="53051639"/>
-        <c:axId val="19168288"/>
+        <c:axId val="75074922"/>
+        <c:axId val="57659894"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53051639"/>
+        <c:axId val="75074922"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1150,7 +1150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19168288"/>
+        <c:crossAx val="57659894"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1158,7 +1158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19168288"/>
+        <c:axId val="57659894"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53051639"/>
+        <c:crossAx val="75074922"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,9 +1301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>338760</xdr:colOff>
+      <xdr:colOff>338400</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1312,7 +1312,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4862880" y="571680"/>
-        <a:ext cx="21468240" cy="13934160"/>
+        <a:ext cx="21467880" cy="13933800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">SUM(B2:B81)</f>
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1459,7 +1459,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1483,7 +1483,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Players Fits and Nationalities/Nationalities.xlsx
+++ b/Players Fits and Nationalities/Nationalities.xlsx
@@ -49,15 +49,18 @@
     <t xml:space="preserve">Czech Republic</t>
   </si>
   <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taiwan</t>
   </si>
   <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
     <t xml:space="preserve">England</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t xml:space="preserve">Russia</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
@@ -115,6 +115,9 @@
     <t xml:space="preserve">China</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scotland</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slovakia</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hungary</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
   </si>
   <si>
     <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
   </si>
   <si>
     <t xml:space="preserve">Estonia</t>
@@ -485,7 +485,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -601,25 +601,25 @@
                   <c:v>Czech Republic</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Germany</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Taiwan</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>England</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Russia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Australia</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Spain</c:v>
@@ -667,19 +667,19 @@
                   <c:v>China</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>Saudi Arabia</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>Scotland</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>Belgium</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>Israel</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>Mexico</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Saudi Arabia</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>Slovakia</c:v>
@@ -691,34 +691,34 @@
                   <c:v>Austria</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>Chile</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>Indonesia</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>New Zealand</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>Philippines</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>Portugal</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>Romania</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>Switzerland</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>Uganda</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>Uruguay</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Chile</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>Estonia</c:v>
@@ -832,7 +832,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>206</c:v>
@@ -847,25 +847,25 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>22</c:v>
@@ -883,7 +883,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>13</c:v>
@@ -919,7 +919,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5</c:v>
@@ -967,7 +967,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3</c:v>
@@ -1077,11 +1077,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="75074922"/>
-        <c:axId val="57659894"/>
+        <c:axId val="16936640"/>
+        <c:axId val="3767110"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75074922"/>
+        <c:axId val="16936640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1150,7 +1150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57659894"/>
+        <c:crossAx val="3767110"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1158,7 +1158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57659894"/>
+        <c:axId val="3767110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75074922"/>
+        <c:crossAx val="16936640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,9 +1301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>338400</xdr:colOff>
+      <xdr:colOff>338040</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1312,7 +1312,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4862880" y="571680"/>
-        <a:ext cx="21467880" cy="13933800"/>
+        <a:ext cx="21467520" cy="13933440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1356,14 +1356,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">SUM(B2:B81)</f>
-        <v>1267</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1403,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1427,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1499,7 +1499,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1595,7 +1595,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1723,7 +1723,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Players Fits and Nationalities/Nationalities.xlsx
+++ b/Players Fits and Nationalities/Nationalities.xlsx
@@ -485,7 +485,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -868,7 +868,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>21</c:v>
@@ -1077,11 +1077,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="16936640"/>
-        <c:axId val="3767110"/>
+        <c:axId val="33035519"/>
+        <c:axId val="97964937"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16936640"/>
+        <c:axId val="33035519"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1150,7 +1150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3767110"/>
+        <c:crossAx val="97964937"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1158,7 +1158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3767110"/>
+        <c:axId val="97964937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1237,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16936640"/>
+        <c:crossAx val="33035519"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,9 +1301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>338040</xdr:colOff>
+      <xdr:colOff>337680</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1312,7 +1312,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4862880" y="571680"/>
-        <a:ext cx="21467520" cy="13933440"/>
+        <a:ext cx="21467160" cy="13933080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">SUM(B2:B81)</f>
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1459,7 +1459,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Players Fits and Nationalities/Nationalities.xlsx
+++ b/Players Fits and Nationalities/Nationalities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -97,24 +97,30 @@
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">Québec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
-    <t xml:space="preserve">Québec </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
+    <t xml:space="preserve">Austria</t>
   </si>
   <si>
     <t xml:space="preserve">China</t>
   </si>
   <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -124,30 +130,24 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slovakia</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam</t>
   </si>
   <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chile</t>
   </si>
   <si>
     <t xml:space="preserve">Hungary</t>
   </si>
   <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
     <t xml:space="preserve">Malaysia</t>
@@ -485,7 +488,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -649,55 +652,55 @@
                   <c:v>Greece</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>Québec </c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>Québec </c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>India</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Italy</c:v>
-                </c:pt>
                 <c:pt idx="27">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>Saudi Arabia</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>Scotland</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>Belgium</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
+                  <c:v>Indonesia</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>Israel</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>Mexico</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>Slovakia</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>Vietnam</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>Chile</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>Hungary</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Indonesia</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>New Zealand</c:v>
@@ -802,25 +805,25 @@
                   <c:v>Kazakhstan</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>Lebanon</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>Malaysia</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>Nepal</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>Pakistan</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>Panama</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>Puerto Rico</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>Venezuela</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Wales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -832,22 +835,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>241</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>33</c:v>
@@ -883,10 +886,10 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>11</c:v>
@@ -901,7 +904,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>7</c:v>
@@ -922,10 +925,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5</c:v>
@@ -937,10 +940,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4</c:v>
@@ -1077,11 +1080,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="33035519"/>
-        <c:axId val="97964937"/>
+        <c:axId val="75291312"/>
+        <c:axId val="81169381"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33035519"/>
+        <c:axId val="75291312"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1150,7 +1153,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97964937"/>
+        <c:crossAx val="81169381"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1158,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97964937"/>
+        <c:axId val="81169381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1240,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33035519"/>
+        <c:crossAx val="75291312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,9 +1304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>337680</xdr:colOff>
+      <xdr:colOff>337320</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1312,7 +1315,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4862880" y="571680"/>
-        <a:ext cx="21467160" cy="13933080"/>
+        <a:ext cx="21466800" cy="13932720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1333,7 +1336,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1356,14 +1359,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">SUM(B2:B81)</f>
-        <v>1279</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1371,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1379,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1387,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1403,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1499,7 +1502,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1507,7 +1510,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1547,7 +1550,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1603,7 +1606,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1611,7 +1614,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1643,7 +1646,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1651,7 +1654,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1995,6 +1998,14 @@
         <v>82</v>
       </c>
       <c r="B81" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="3" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Players Fits and Nationalities/Nationalities.xlsx
+++ b/Players Fits and Nationalities/Nationalities.xlsx
@@ -55,18 +55,18 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taiwan</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia</t>
+    <t xml:space="preserve">Finland</t>
   </si>
   <si>
     <t xml:space="preserve">England</t>
   </si>
   <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Russia</t>
   </si>
   <si>
@@ -112,6 +112,12 @@
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Austria</t>
   </si>
   <si>
@@ -121,10 +127,10 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotland</t>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
@@ -136,12 +142,12 @@
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slovakia</t>
   </si>
   <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chile</t>
   </si>
   <si>
@@ -152,12 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
   </si>
   <si>
     <t xml:space="preserve">Switzerland</t>
@@ -488,7 +488,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -610,16 +610,16 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Taiwan</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Australia</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>Finland</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>England</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Finland</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Russia</c:v>
@@ -667,52 +667,52 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>Saudi Arabia</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Scotland</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>Austria</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>Mexico</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>Saudi Arabia</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Scotland</c:v>
-                </c:pt>
                 <c:pt idx="32">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Vietnam</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>Belgium</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>Indonesia</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>Israel</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
+                  <c:v>Romania</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>Slovakia</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>Vietnam</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>Chile</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>New Zealand</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>Philippines</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Romania</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>Switzerland</c:v>
@@ -835,10 +835,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>244</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>149</c:v>
@@ -859,7 +859,7 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>26</c:v>
@@ -868,13 +868,13 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20</c:v>
@@ -916,10 +916,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>6</c:v>
@@ -931,10 +931,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5</c:v>
@@ -946,10 +946,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4</c:v>
@@ -1080,11 +1080,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="75291312"/>
-        <c:axId val="81169381"/>
+        <c:axId val="64139033"/>
+        <c:axId val="60692637"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75291312"/>
+        <c:axId val="64139033"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1153,7 +1153,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81169381"/>
+        <c:crossAx val="60692637"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1161,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81169381"/>
+        <c:axId val="60692637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1240,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75291312"/>
+        <c:crossAx val="64139033"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,9 +1304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>337320</xdr:colOff>
+      <xdr:colOff>336600</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1315,7 +1315,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4862880" y="571680"/>
-        <a:ext cx="21466800" cy="13932720"/>
+        <a:ext cx="21466080" cy="13932000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1335,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1359,14 +1359,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">SUM(B2:B81)</f>
-        <v>1297</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1374,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1430,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1454,7 +1454,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1470,7 +1470,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1582,7 +1582,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1590,7 +1590,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1622,7 +1622,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1630,7 +1630,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1662,7 +1662,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Players Fits and Nationalities/Nationalities.xlsx
+++ b/Players Fits and Nationalities/Nationalities.xlsx
@@ -115,19 +115,19 @@
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scotland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam</t>
@@ -488,7 +488,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -670,19 +670,19 @@
                   <c:v>Saudi Arabia</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Scotland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Mexico</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Portugal</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>Vietnam</c:v>
@@ -919,7 +919,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>6</c:v>
@@ -1080,11 +1080,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="64139033"/>
-        <c:axId val="60692637"/>
+        <c:axId val="29471194"/>
+        <c:axId val="62663713"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64139033"/>
+        <c:axId val="29471194"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1153,7 +1153,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60692637"/>
+        <c:crossAx val="62663713"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1161,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60692637"/>
+        <c:axId val="62663713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1240,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64139033"/>
+        <c:crossAx val="29471194"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,9 +1304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>336600</xdr:colOff>
+      <xdr:colOff>336240</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1315,7 +1315,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4862880" y="571680"/>
-        <a:ext cx="21466080" cy="13932000"/>
+        <a:ext cx="21465720" cy="13931640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">SUM(B2:B81)</f>
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1590,7 +1590,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Players Fits and Nationalities/Nationalities.xlsx
+++ b/Players Fits and Nationalities/Nationalities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -58,12 +58,12 @@
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taiwan</t>
   </si>
   <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
     <t xml:space="preserve">England</t>
   </si>
   <si>
@@ -94,10 +94,16 @@
     <t xml:space="preserve">Hong Kong</t>
   </si>
   <si>
+    <t xml:space="preserve">Québec </t>
+  </si>
+  <si>
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
-    <t xml:space="preserve">Québec </t>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
   </si>
   <si>
     <t xml:space="preserve">Denmark</t>
@@ -115,13 +121,10 @@
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
     <t xml:space="preserve">China</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexico</t>
+    <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
     <t xml:space="preserve">Portugal</t>
@@ -136,9 +139,6 @@
     <t xml:space="preserve">Belgium</t>
   </si>
   <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
     <t xml:space="preserve">Canary Islands</t>
@@ -488,7 +491,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -582,9 +585,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Arkusz1!$A$2:$A$81</c:f>
+              <c:f>Arkusz1!$A$2:$A$82</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>Poland</c:v>
                 </c:pt>
@@ -613,10 +616,10 @@
                   <c:v>Australia</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Finland</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Taiwan</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Finland</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>England</c:v>
@@ -649,49 +652,49 @@
                   <c:v>Hong Kong</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>Québec </c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Greece</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>Québec </c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>India</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>Italy</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>Saudi Arabia</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>China</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>Mexico</c:v>
-                </c:pt>
                 <c:pt idx="31">
+                  <c:v>Indonesia</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>Portugal</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>Scotland</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>Vietnam</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Indonesia</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>Israel</c:v>
@@ -772,57 +775,60 @@
                   <c:v>Brunei</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>Bulgaria</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>Canary Islands</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>Catalonia</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>Costa Rica</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>Croatia</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>Egypt</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>European Union</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>Honduras</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>Iraq</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>Ireland</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>Jordan</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>Kazakhstan</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>Lebanon</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>Malaysia</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>Nepal</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>Pakistan</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>Panama</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>Puerto Rico</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>Venezuela</c:v>
                 </c:pt>
               </c:strCache>
@@ -830,48 +836,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$81</c:f>
+              <c:f>Arkusz1!$B$2:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>245</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>23</c:v>
@@ -898,13 +904,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>7</c:v>
@@ -919,10 +925,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6</c:v>
@@ -937,7 +943,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>5</c:v>
@@ -1072,6 +1078,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1080,11 +1089,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="29471194"/>
-        <c:axId val="62663713"/>
+        <c:axId val="23630058"/>
+        <c:axId val="67016445"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29471194"/>
+        <c:axId val="23630058"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1153,7 +1162,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62663713"/>
+        <c:crossAx val="67016445"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1161,7 +1170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62663713"/>
+        <c:axId val="67016445"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1249,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29471194"/>
+        <c:crossAx val="23630058"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,9 +1313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>336240</xdr:colOff>
+      <xdr:colOff>335880</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1315,7 +1324,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4862880" y="571680"/>
-        <a:ext cx="21465720" cy="13931640"/>
+        <a:ext cx="21465360" cy="13931280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1335,8 +1344,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F78" activeCellId="0" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1359,14 +1368,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="n">
         <f aca="false">SUM(B2:B81)</f>
-        <v>1305</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1374,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1382,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1390,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1406,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1414,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1430,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1440,13 +1449,15 @@
       <c r="B11" s="3" t="n">
         <v>26</v>
       </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1454,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1462,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1534,8 +1545,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
@@ -1550,8 +1563,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
@@ -1560,6 +1575,8 @@
       <c r="B26" s="3" t="n">
         <v>7</v>
       </c>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -1568,6 +1585,8 @@
       <c r="B27" s="3" t="n">
         <v>7</v>
       </c>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
@@ -1576,6 +1595,8 @@
       <c r="B28" s="3" t="n">
         <v>7</v>
       </c>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
@@ -1584,22 +1605,28 @@
       <c r="B29" s="3" t="n">
         <v>7</v>
       </c>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
@@ -1608,6 +1635,8 @@
       <c r="B32" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
@@ -1616,6 +1645,8 @@
       <c r="B33" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
@@ -1624,6 +1655,8 @@
       <c r="B34" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
@@ -1632,14 +1665,18 @@
       <c r="B35" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
@@ -2009,9 +2046,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="5"/>
